--- a/testData/authorization_test_data.xlsx
+++ b/testData/authorization_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_authorization" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="144">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.23.182</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改后的名称3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,10 +584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.23.182</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,6 +593,10 @@
   </si>
   <si>
     <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,8 +1118,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1169,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>0</v>
@@ -1183,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
@@ -1191,7 +1187,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1210,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1598,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>7</v>
@@ -1628,10 +1624,10 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="2"/>
@@ -1726,7 +1722,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1796,7 +1792,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="6"/>
@@ -1822,7 +1818,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="6"/>
@@ -1848,7 +1844,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="6"/>
@@ -1874,7 +1870,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="6"/>
@@ -1900,7 +1896,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="6"/>
@@ -1921,14 +1917,14 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="6"/>
@@ -1939,26 +1935,26 @@
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="6"/>
@@ -2152,19 +2148,19 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>65</v>
@@ -2185,7 +2181,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -2231,7 +2227,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2256,7 +2252,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2281,7 +2277,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -2306,7 +2302,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -2331,7 +2327,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2381,7 +2377,7 @@
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="17">
         <v>4</v>
@@ -2531,7 +2527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2556,7 +2552,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>8</v>
@@ -2597,7 +2593,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2626,7 +2622,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2655,7 +2651,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2684,7 +2680,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -2713,7 +2709,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2802,16 +2798,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="F1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>66</v>
@@ -2822,10 +2818,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2837,52 +2833,52 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2920,16 +2916,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7" t="s">
@@ -2938,50 +2934,50 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
         <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
         <v>136</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/testData/authorization_test_data.xlsx
+++ b/testData/authorization_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_authorization" sheetId="2" r:id="rId1"/>
@@ -12,16 +12,15 @@
     <sheet name="authorization_check" sheetId="4" r:id="rId3"/>
     <sheet name="authorazation_search" sheetId="5" r:id="rId4"/>
     <sheet name="del_authorization" sheetId="16" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId6"/>
-    <sheet name="access_approvel" sheetId="18" r:id="rId7"/>
-    <sheet name="double_approvel" sheetId="19" r:id="rId8"/>
+    <sheet name="access_approvel" sheetId="18" r:id="rId6"/>
+    <sheet name="double_approvel" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="135">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.23.182</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户组6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ROOT部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">test_F04_S04_mod_007
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,46 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户选择页面不勾选用户的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择需要授权用户！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组选择页面不勾选用户组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择需要授权用户组！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择需要授权资源！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源组选择页面不勾选资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源组页面不勾选资源组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择需要授权资源组！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择需要授权账号！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源账号页面不勾选资源账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检索授权名称包含bb的条目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检索授权中资源账号包含root的条目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检索授权中资源IP为172.16.10.240的条目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检索授权中资源为192.168.23.182和资源账号为root的条目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检索授权中资源ip为1.1.1.55的条目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门状态4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,18 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户名称/账号3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权名称2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,10 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被审批人5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,10 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审批人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双人授权候选人(1/1/6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,10 +495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>授权名称重复的校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,6 +512,54 @@
   </si>
   <si>
     <t>172.16.10.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门类型9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索条件2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权名称5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称/账号6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号名称9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_search_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_access_011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人数6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_double_012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +567,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,22 +599,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -667,7 +614,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -738,6 +685,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -748,7 +713,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,9 +727,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -784,9 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -810,6 +769,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,23 +1084,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
     <col min="11" max="11" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1146,28 +1115,28 @@
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1179,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
@@ -1187,14 +1156,14 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1206,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1217,337 +1186,259 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
+      <c r="K4" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>23</v>
+      <c r="K5" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>28</v>
+      <c r="K6" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>31</v>
+      <c r="K7" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>35</v>
+      <c r="K8" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="18" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" ht="18" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="18" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" ht="18" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1559,22 +1450,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.75" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="31.375" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
     <col min="12" max="12" width="16.375" customWidth="1"/>
     <col min="13" max="13" width="16.25" customWidth="1"/>
@@ -1593,122 +1486,59 @@
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="E2" s="8"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="14" t="s">
-        <v>38</v>
+      <c r="K2" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1720,20 +1550,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.25" customWidth="1"/>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="41.875" customWidth="1"/>
+    <col min="3" max="3" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="29.625" customWidth="1"/>
     <col min="11" max="11" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="15.375" customWidth="1"/>
@@ -1750,369 +1581,225 @@
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="10" t="s">
         <v>43</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="12:16">
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2124,20 +1811,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -2148,40 +1840,40 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -2190,21 +1882,21 @@
         <v>0</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="8"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="15"/>
-      <c r="K2" t="s">
-        <v>84</v>
+      <c r="J2" s="13"/>
+      <c r="K2" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -2213,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="15"/>
-      <c r="K3" t="s">
-        <v>84</v>
+      <c r="J3" s="13"/>
+      <c r="K3" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="8" t="s">
-        <v>119</v>
+      <c r="C4" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2236,23 +1928,23 @@
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="8" t="s">
-        <v>67</v>
+      <c r="G4" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="15"/>
-      <c r="K4" t="s">
-        <v>84</v>
+      <c r="J4" s="13"/>
+      <c r="K4" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2261,23 +1953,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="8" t="s">
-        <v>82</v>
+      <c r="G5" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="15"/>
-      <c r="K5" t="s">
-        <v>84</v>
+      <c r="J5" s="13"/>
+      <c r="K5" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -2286,23 +1978,23 @@
         <v>2</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="15"/>
-      <c r="K6" t="s">
-        <v>84</v>
+      <c r="J6" s="13"/>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -2311,23 +2003,23 @@
         <v>2</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="15"/>
-      <c r="K7" t="s">
-        <v>84</v>
+      <c r="J7" s="13"/>
+      <c r="K7" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="20" t="s">
-        <v>121</v>
+      <c r="C8" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2336,110 +2028,67 @@
         <v>3</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="A9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="15">
         <v>3</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="15">
         <v>3</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" t="s">
-        <v>84</v>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="1">
         <v>4</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2456,7 +2105,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2470,52 +2119,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" t="s">
-        <v>85</v>
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2525,255 +2184,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2784,101 +2198,128 @@
     <col min="4" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2887,98 +2328,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="7" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>137</v>
-      </c>
+      <c r="H4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="H5" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testData/authorization_test_data.xlsx
+++ b/testData/authorization_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="add_authorization" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="134">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">test_F04_S02_add_004
 </t>
   </si>
@@ -264,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检索授权中资源账号包含a123的条目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,10 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部门类型9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,6 +548,14 @@
   </si>
   <si>
     <t>test_F04_S03_double_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.183</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1086,8 +1082,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1122,10 +1118,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>9</v>
@@ -1134,7 +1130,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>0</v>
@@ -1148,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
@@ -1156,7 +1152,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1175,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1223,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -1258,7 +1254,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1266,18 +1262,18 @@
         <v>0</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
@@ -1293,18 +1289,18 @@
         <v>0</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
@@ -1314,13 +1310,13 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
@@ -1487,7 +1483,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>7</v>
@@ -1513,14 +1509,14 @@
     </row>
     <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="2"/>
@@ -1529,7 +1525,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1553,7 +1549,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1588,10 +1584,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>9</v>
@@ -1610,10 +1606,10 @@
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1623,7 +1619,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="5"/>
@@ -1634,13 +1630,13 @@
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1649,7 +1645,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="5"/>
@@ -1660,13 +1656,13 @@
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1675,7 +1671,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="5"/>
@@ -1686,13 +1682,13 @@
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1701,7 +1697,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="5"/>
@@ -1712,13 +1708,13 @@
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1727,7 +1723,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="5"/>
@@ -1738,24 +1734,24 @@
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="8"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="5"/>
@@ -1766,26 +1762,26 @@
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
@@ -1814,7 +1810,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1840,28 +1836,28 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>0</v>
@@ -1869,11 +1865,11 @@
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1887,16 +1883,16 @@
       <c r="I2" s="1"/>
       <c r="J2" s="13"/>
       <c r="K2" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1910,16 +1906,16 @@
       <c r="I3" s="1"/>
       <c r="J3" s="13"/>
       <c r="K3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1929,22 +1925,22 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="13"/>
       <c r="K4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1954,22 +1950,22 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="13"/>
       <c r="K5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1980,21 +1976,21 @@
       <c r="F6" s="1"/>
       <c r="G6" s="9"/>
       <c r="H6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="13"/>
       <c r="K6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -2005,21 +2001,21 @@
       <c r="F7" s="1"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="13"/>
       <c r="K7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2031,20 +2027,20 @@
       <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="15">
         <v>3</v>
@@ -2056,20 +2052,20 @@
       <c r="G9" s="16"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -2085,7 +2081,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="5"/>
@@ -2129,16 +2125,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>0</v>
@@ -2146,28 +2142,28 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2214,19 +2210,19 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>0</v>
@@ -2234,11 +2230,11 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2250,45 +2246,45 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2296,30 +2292,30 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2332,7 +2328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -2359,16 +2355,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>0</v>
@@ -2376,35 +2372,35 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2412,19 +2408,19 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -2432,10 +2428,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8">

--- a/testData/authorization_test_data.xlsx
+++ b/testData/authorization_test_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gg123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资源ip5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,23 +83,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bb123_yonghu资源组-授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yw123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cs资源组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>添加用户和资源账号的授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -119,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dd123_yonghuzu资源-授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cs用户组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ee123_yonghuzu资源组-授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">test_F04_S02_add_005
 </t>
   </si>
@@ -147,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ff123_yonghuzu资源账号-授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Administrator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,14 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除全部授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc123_yonghu资源账号-授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户组5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,14 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aa123_shouquan-授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_F04_S04_checkout_008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,14 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aa123_shouquan-授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加一级访问审批</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,14 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,10 +419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双人授权候选人(0/0/6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,10 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部门类型9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,11 +483,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.183</t>
+    <t>192.168.23.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyryw123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyruser123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrgg123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合授权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1083,7 +1059,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1118,10 +1094,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>9</v>
@@ -1130,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>0</v>
@@ -1144,15 +1120,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1171,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1186,75 +1162,75 @@
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1262,61 +1238,61 @@
         <v>0</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
@@ -1449,7 +1425,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1483,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>7</v>
@@ -1492,10 +1468,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>9</v>
@@ -1509,14 +1485,14 @@
     </row>
     <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="2"/>
@@ -1525,7 +1501,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1549,7 +1525,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1584,10 +1560,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>9</v>
@@ -1606,10 +1582,10 @@
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1619,7 +1595,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="5"/>
@@ -1630,13 +1606,13 @@
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1645,7 +1621,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="5"/>
@@ -1656,13 +1632,13 @@
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1671,7 +1647,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="5"/>
@@ -1682,13 +1658,13 @@
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1697,7 +1673,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="5"/>
@@ -1708,13 +1684,13 @@
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1723,7 +1699,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="5"/>
@@ -1734,24 +1710,24 @@
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="8"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="5"/>
@@ -1762,26 +1738,26 @@
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="5"/>
@@ -1810,7 +1786,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1836,28 +1812,28 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>0</v>
@@ -1865,11 +1841,11 @@
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1883,16 +1859,16 @@
       <c r="I2" s="1"/>
       <c r="J2" s="13"/>
       <c r="K2" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1906,16 +1882,16 @@
       <c r="I3" s="1"/>
       <c r="J3" s="13"/>
       <c r="K3" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1925,22 +1901,22 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="13"/>
       <c r="K4" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1950,22 +1926,22 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="13"/>
       <c r="K5" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1976,21 +1952,21 @@
       <c r="F6" s="1"/>
       <c r="G6" s="9"/>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="13"/>
       <c r="K6" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -2001,21 +1977,21 @@
       <c r="F7" s="1"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="13"/>
       <c r="K7" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="18" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2027,20 +2003,20 @@
       <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D9" s="15">
         <v>3</v>
@@ -2052,20 +2028,20 @@
       <c r="G9" s="16"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -2078,10 +2054,10 @@
       <c r="H10" s="1"/>
       <c r="I10" s="9"/>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="5"/>
@@ -2098,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2125,16 +2101,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>0</v>
@@ -2142,35 +2118,129 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2183,7 +2253,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2210,19 +2280,19 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>0</v>
@@ -2230,61 +2300,61 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2292,30 +2362,30 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2329,7 +2399,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E13" activeCellId="1" sqref="C8 E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2355,16 +2425,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>0</v>
@@ -2372,35 +2442,35 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2408,19 +2478,19 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -2428,10 +2498,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8">
